--- a/data/States and Territory Map.xlsx
+++ b/data/States and Territory Map.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/Job/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FECD6685-7E62-42F2-87A0-609E9730BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{FECD6685-7E62-42F2-87A0-609E9730BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63252AC6-5A39-4F18-A92C-EBF0F3A71745}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{3E94A7F6-680A-48DD-88C5-3B57B868F37E}"/>
   </bookViews>
   <sheets>
     <sheet name="States And Territory Map" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'States And Territory Map'!$A$1:$D$169</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="12">
   <si>
     <t>State</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Date</t>
   </si>
   <si>
     <t>New South Wales</t>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Australian Capital Territory</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -115,12 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,6 +140,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F968C58-2035-4559-8B38-121DAB127479}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -466,7 +474,7 @@
     <col min="1" max="1" width="34.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,1858 +482,2366 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>72.8</v>
       </c>
-      <c r="C2" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>61.2</v>
       </c>
-      <c r="C3" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>39.1</v>
       </c>
-      <c r="C4" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>11.3</v>
       </c>
-      <c r="C5" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>26.4</v>
       </c>
-      <c r="C6" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3.6</v>
       </c>
-      <c r="C7" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>4.3</v>
       </c>
-      <c r="C8" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>7.6</v>
       </c>
-      <c r="C9" s="3">
-        <v>43678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>80.2</v>
       </c>
-      <c r="C10" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>60.1</v>
       </c>
-      <c r="C11" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>39.200000000000003</v>
       </c>
-      <c r="C12" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>11.4</v>
       </c>
-      <c r="C13" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>25.7</v>
       </c>
-      <c r="C14" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>3.6</v>
       </c>
-      <c r="C15" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>3.5</v>
       </c>
-      <c r="C16" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>7.7</v>
       </c>
-      <c r="C17" s="3">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>79.3</v>
       </c>
-      <c r="C18" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>59.7</v>
       </c>
-      <c r="C19" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>38.4</v>
       </c>
-      <c r="C20" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>11.7</v>
       </c>
-      <c r="C21" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>27.6</v>
       </c>
-      <c r="C22" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>3.4</v>
       </c>
-      <c r="C23" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>2.9</v>
       </c>
-      <c r="C24" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
         <v>6.6</v>
       </c>
-      <c r="C25" s="4">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>39.799999999999997</v>
       </c>
-      <c r="C26" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>28.7</v>
       </c>
-      <c r="C27" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>25.2</v>
       </c>
-      <c r="C28" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>6.8</v>
       </c>
-      <c r="C29" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>16.8</v>
       </c>
-      <c r="C30" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>1.9</v>
       </c>
-      <c r="C31" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>1.7</v>
       </c>
-      <c r="C32" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>3.6</v>
       </c>
-      <c r="C33" s="4">
-        <v>43952</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
         <v>62.2</v>
       </c>
-      <c r="C34" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>45.8</v>
       </c>
-      <c r="C35" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>42.1</v>
       </c>
-      <c r="C36" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>12.5</v>
       </c>
-      <c r="C37" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>32.200000000000003</v>
       </c>
-      <c r="C38" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>3.4</v>
       </c>
-      <c r="C39" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>4.2</v>
       </c>
-      <c r="C40" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>5.6</v>
       </c>
-      <c r="C41" s="4">
-        <v>44044</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>82.7</v>
       </c>
-      <c r="C42" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>58.4</v>
       </c>
-      <c r="C43" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>47.9</v>
       </c>
-      <c r="C44" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>15.6</v>
       </c>
-      <c r="C45" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>37.4</v>
       </c>
-      <c r="C46" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C47" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>4.2</v>
       </c>
-      <c r="C48" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>7.9</v>
       </c>
-      <c r="C49" s="4">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50">
         <v>94</v>
       </c>
-      <c r="C50" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
         <v>65.599999999999994</v>
       </c>
-      <c r="C51" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>53.5</v>
       </c>
-      <c r="C52" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <v>19.3</v>
       </c>
-      <c r="C53" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>40</v>
       </c>
-      <c r="C54" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>5.7</v>
       </c>
-      <c r="C55" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>4.8</v>
       </c>
-      <c r="C56" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C57" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58">
         <v>112.8</v>
       </c>
-      <c r="C58" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>87.6</v>
       </c>
-      <c r="C59" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>67.2</v>
       </c>
-      <c r="C60" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61">
         <v>21.3</v>
       </c>
-      <c r="C61" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>46.2</v>
       </c>
-      <c r="C62" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>6.5</v>
       </c>
-      <c r="C63" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
         <v>9</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
-        <v>10</v>
       </c>
       <c r="B65">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C65" s="4">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66">
         <v>95.2</v>
       </c>
-      <c r="C66" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <v>81.3</v>
       </c>
-      <c r="C67" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>70.599999999999994</v>
       </c>
-      <c r="C68" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>18</v>
       </c>
-      <c r="C69" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70">
         <v>52.1</v>
       </c>
-      <c r="C70" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71">
         <v>5.8</v>
       </c>
-      <c r="C71" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72">
         <v>6.1</v>
       </c>
-      <c r="C72" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>8</v>
       </c>
-      <c r="C73" s="4">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74">
         <v>120.9</v>
       </c>
-      <c r="C74" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75">
         <v>106</v>
       </c>
-      <c r="C75" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>70.3</v>
       </c>
-      <c r="C76" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <v>23.7</v>
       </c>
-      <c r="C77" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78">
         <v>60.8</v>
       </c>
-      <c r="C78" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C78">
+        <v>11</v>
+      </c>
+      <c r="D78">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79">
         <v>6.8</v>
       </c>
-      <c r="C79" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C79">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80">
         <v>6.2</v>
       </c>
-      <c r="C80" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>9.9</v>
       </c>
-      <c r="C81" s="4">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C81">
+        <v>11</v>
+      </c>
+      <c r="D81">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82">
         <v>130</v>
       </c>
-      <c r="C82" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83">
         <v>101.8</v>
       </c>
-      <c r="C83" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84">
         <v>76.900000000000006</v>
       </c>
-      <c r="C84" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85">
         <v>24.5</v>
       </c>
-      <c r="C85" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86">
         <v>66.5</v>
       </c>
-      <c r="C86" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87">
         <v>7.3</v>
       </c>
-      <c r="C87" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88">
         <v>8.5</v>
       </c>
-      <c r="C88" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>11.5</v>
       </c>
-      <c r="C89" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B90">
         <v>145.1</v>
       </c>
-      <c r="C90" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B91">
         <v>120.1</v>
       </c>
-      <c r="C91" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <v>78.599999999999994</v>
       </c>
-      <c r="C92" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93">
         <v>24.5</v>
       </c>
-      <c r="C93" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94">
         <v>65.2</v>
       </c>
-      <c r="C94" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95">
         <v>7.5</v>
       </c>
-      <c r="C95" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96">
         <v>7.7</v>
       </c>
-      <c r="C96" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B97">
         <v>12.3</v>
       </c>
-      <c r="C97" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98">
         <v>150.80000000000001</v>
       </c>
-      <c r="C98" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C98">
+        <v>8</v>
+      </c>
+      <c r="D98">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99">
         <v>126.6</v>
       </c>
-      <c r="C99" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100">
         <v>85.8</v>
       </c>
-      <c r="C100" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101">
         <v>25.2</v>
       </c>
-      <c r="C101" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C101">
+        <v>8</v>
+      </c>
+      <c r="D101">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102">
         <v>60.7</v>
       </c>
-      <c r="C102" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103">
         <v>6.3</v>
       </c>
-      <c r="C103" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104">
         <v>7.6</v>
       </c>
-      <c r="C104" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105">
         <v>12</v>
       </c>
-      <c r="C105" s="4">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B106">
         <v>133</v>
       </c>
-      <c r="C106" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107">
         <v>117.7</v>
       </c>
-      <c r="C107" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C107">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B108">
         <v>85.7</v>
       </c>
-      <c r="C108" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B109">
         <v>25.3</v>
       </c>
-      <c r="C109" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B110">
         <v>61.9</v>
       </c>
-      <c r="C110" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111">
         <v>7.1</v>
       </c>
-      <c r="C111" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C111">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B112">
         <v>7.5</v>
       </c>
-      <c r="C112" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B113">
         <v>12.2</v>
       </c>
-      <c r="C113" s="4">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C113">
+        <v>11</v>
+      </c>
+      <c r="D113">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A114" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114">
         <v>145</v>
       </c>
-      <c r="C114" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115">
         <v>110.8</v>
       </c>
-      <c r="C115" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116">
         <v>85</v>
       </c>
-      <c r="C116" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117">
         <v>22.9</v>
       </c>
-      <c r="C117" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118">
         <v>52.8</v>
       </c>
-      <c r="C118" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119">
         <v>7.7</v>
       </c>
-      <c r="C119" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B120">
         <v>6.9</v>
       </c>
-      <c r="C120" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B121">
         <v>11.5</v>
       </c>
-      <c r="C121" s="4">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A122" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122">
         <v>128.1</v>
       </c>
-      <c r="C122" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123">
         <v>105.1</v>
       </c>
-      <c r="C123" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124">
         <v>77.099999999999994</v>
       </c>
-      <c r="C124" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125">
         <v>24.9</v>
       </c>
-      <c r="C125" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B126">
         <v>54.9</v>
       </c>
-      <c r="C126" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127">
         <v>7.1</v>
       </c>
-      <c r="C127" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128">
         <v>6.3</v>
       </c>
-      <c r="C128" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129">
         <v>11.4</v>
       </c>
-      <c r="C129" s="4">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A130" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130">
         <v>122.4</v>
       </c>
-      <c r="C130" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131">
         <v>99.6</v>
       </c>
-      <c r="C131" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132">
         <v>80</v>
       </c>
-      <c r="C132" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B133">
         <v>24.7</v>
       </c>
-      <c r="C133" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B134">
         <v>52.5</v>
       </c>
-      <c r="C134" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135">
         <v>6.8</v>
       </c>
-      <c r="C135" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
-      <c r="C136" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B137">
         <v>10.4</v>
       </c>
-      <c r="C137" s="4">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A138" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138">
         <v>119.5</v>
       </c>
-      <c r="C138" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C138">
+        <v>11</v>
+      </c>
+      <c r="D138">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139">
         <v>94.9</v>
       </c>
-      <c r="C139" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140">
         <v>78.2</v>
       </c>
-      <c r="C140" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C140">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B141">
         <v>24</v>
       </c>
-      <c r="C141" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C141">
+        <v>11</v>
+      </c>
+      <c r="D141">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B142">
         <v>49.5</v>
       </c>
-      <c r="C142" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143">
         <v>6.5</v>
       </c>
-      <c r="C143" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C143">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B144">
         <v>5.2</v>
       </c>
-      <c r="C144" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C144">
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B145">
         <v>8.6</v>
       </c>
-      <c r="C145" s="4">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A146" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146">
         <v>107.6</v>
       </c>
-      <c r="C146" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147">
         <v>91.5</v>
       </c>
-      <c r="C147" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148">
         <v>69.5</v>
       </c>
-      <c r="C148" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149">
         <v>25.9</v>
       </c>
-      <c r="C149" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B150">
         <v>47.8</v>
       </c>
-      <c r="C150" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151">
         <v>6.8</v>
       </c>
-      <c r="C151" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B152">
         <v>4.8</v>
       </c>
-      <c r="C152" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B153">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C153" s="4">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A154" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B154">
         <v>103.5</v>
       </c>
-      <c r="C154" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C154">
+        <v>5</v>
+      </c>
+      <c r="D154">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B155">
         <v>87.4</v>
       </c>
-      <c r="C155" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C155">
+        <v>5</v>
+      </c>
+      <c r="D155">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156">
         <v>67</v>
       </c>
-      <c r="C156" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B157">
         <v>21.5</v>
       </c>
-      <c r="C157" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B158">
         <v>42</v>
       </c>
-      <c r="C158" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159">
         <v>6.4</v>
       </c>
-      <c r="C159" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C159">
+        <v>5</v>
+      </c>
+      <c r="D159">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160">
         <v>5.5</v>
       </c>
-      <c r="C160" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B161">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C161" s="4">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C161">
+        <v>5</v>
+      </c>
+      <c r="D161">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A162" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B162">
         <v>101.4</v>
       </c>
-      <c r="C162" s="4">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B163">
         <v>82.8</v>
       </c>
-      <c r="C163" s="4">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B164">
         <v>67.5</v>
       </c>
-      <c r="C164" s="4">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C164">
+        <v>8</v>
+      </c>
+      <c r="D164">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B165">
         <v>19.5</v>
       </c>
-      <c r="C165" s="4">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C165">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B166">
         <v>41.5</v>
       </c>
-      <c r="C166" s="4">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167">
         <v>6.1</v>
       </c>
-      <c r="C167" s="4">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C167">
+        <v>8</v>
+      </c>
+      <c r="D167">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B168">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C168" s="4">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="C168">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B169">
         <v>7.9</v>
       </c>
-      <c r="C169" s="4">
-        <v>45505</v>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D169" xr:uid="{0F968C58-2035-4559-8B38-121DAB127479}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>

--- a/data/States and Territory Map.xlsx
+++ b/data/States and Territory Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{FECD6685-7E62-42F2-87A0-609E9730BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63252AC6-5A39-4F18-A92C-EBF0F3A71745}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{FECD6685-7E62-42F2-87A0-609E9730BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E78A507B-AEB5-4F58-8C2E-2B3C928BA308}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{3E94A7F6-680A-48DD-88C5-3B57B868F37E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="13">
   <si>
     <t>State</t>
   </si>
@@ -76,12 +76,18 @@
   <si>
     <t>month</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,10 +135,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,18 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F968C58-2035-4559-8B38-121DAB127479}">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,13 +504,16 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>72.8</v>
+        <v>72800</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -501,13 +521,16 @@
       <c r="D2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E2" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>61.2</v>
+        <v>61200</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -515,13 +538,16 @@
       <c r="D3">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E3" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>39.1</v>
+        <v>39100</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -529,13 +555,16 @@
       <c r="D4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E4" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11.3</v>
+        <v>11300</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -543,13 +572,16 @@
       <c r="D5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E5" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>26.4</v>
+        <v>26400</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -557,13 +589,16 @@
       <c r="D6">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E6" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -571,13 +606,16 @@
       <c r="D7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E7" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -585,13 +623,16 @@
       <c r="D8">
         <v>2019</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+      <c r="E8" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7.6</v>
+        <v>7600</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -599,13 +640,16 @@
       <c r="D9">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E9" s="4">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>80.2</v>
+        <v>80200</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -613,13 +657,16 @@
       <c r="D10">
         <v>2019</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E10" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>60.1</v>
+        <v>60100</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -627,13 +674,16 @@
       <c r="D11">
         <v>2019</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E11" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
-        <v>39.200000000000003</v>
+        <v>39200</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -641,13 +691,16 @@
       <c r="D12">
         <v>2019</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E12" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>11.4</v>
+        <v>11400</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -655,13 +708,16 @@
       <c r="D13">
         <v>2019</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E13" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>25.7</v>
+        <v>25700</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -669,13 +725,16 @@
       <c r="D14">
         <v>2019</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E14" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -683,13 +742,16 @@
       <c r="D15">
         <v>2019</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E15" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>3.5</v>
+        <v>3500</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -697,13 +759,16 @@
       <c r="D16">
         <v>2019</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+      <c r="E16" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B17">
-        <v>7.7</v>
+        <v>7700</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -711,13 +776,16 @@
       <c r="D17">
         <v>2019</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E17" s="4">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>79.3</v>
+        <v>79300</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -725,13 +793,16 @@
       <c r="D18">
         <v>2020</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E18" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
-        <v>59.7</v>
+        <v>59700</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -739,13 +810,16 @@
       <c r="D19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E19" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20">
-        <v>38.4</v>
+        <v>38400</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -753,13 +827,16 @@
       <c r="D20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E20" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21">
-        <v>11.7</v>
+        <v>11700</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -767,13 +844,16 @@
       <c r="D21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E21" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>27.6</v>
+        <v>27600</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -781,13 +861,16 @@
       <c r="D22">
         <v>2020</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E22" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23">
-        <v>3.4</v>
+        <v>3400</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -795,13 +878,16 @@
       <c r="D23">
         <v>2020</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E23" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24">
-        <v>2.9</v>
+        <v>2900</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -809,13 +895,16 @@
       <c r="D24">
         <v>2020</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
+      <c r="E24" s="4">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>6.6</v>
+        <v>6600</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -823,13 +912,17 @@
       <c r="D25">
         <v>2020</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E25" s="4">
+        <v>43862</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>39.799999999999997</v>
+        <v>39800</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -837,13 +930,16 @@
       <c r="D26">
         <v>2020</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E26" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>3</v>
       </c>
       <c r="B27">
-        <v>28.7</v>
+        <v>28700</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -851,13 +947,16 @@
       <c r="D27">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E27" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28">
-        <v>25.2</v>
+        <v>25200</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -865,13 +964,16 @@
       <c r="D28">
         <v>2020</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E28" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29">
-        <v>6.8</v>
+        <v>6800</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -879,13 +981,16 @@
       <c r="D29">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E29" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30">
-        <v>16.8</v>
+        <v>16800</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -893,13 +998,16 @@
       <c r="D30">
         <v>2020</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E30" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -907,13 +1015,16 @@
       <c r="D31">
         <v>2020</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E31" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -921,13 +1032,16 @@
       <c r="D32">
         <v>2020</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+      <c r="E32" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B33">
-        <v>3.6</v>
+        <v>3600</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -935,13 +1049,16 @@
       <c r="D33">
         <v>2020</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E33" s="4">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B34">
-        <v>62.2</v>
+        <v>62200</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -949,13 +1066,16 @@
       <c r="D34">
         <v>2020</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E34" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35">
-        <v>45.8</v>
+        <v>45800</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -963,13 +1083,16 @@
       <c r="D35">
         <v>2020</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E35" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36">
-        <v>42.1</v>
+        <v>42100</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -977,13 +1100,16 @@
       <c r="D36">
         <v>2020</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E36" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37">
-        <v>12.5</v>
+        <v>12500</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -991,13 +1117,16 @@
       <c r="D37">
         <v>2020</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E37" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>6</v>
       </c>
       <c r="B38">
-        <v>32.200000000000003</v>
+        <v>32200.000000000004</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -1005,13 +1134,16 @@
       <c r="D38">
         <v>2020</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E38" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39">
-        <v>3.4</v>
+        <v>3400</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -1019,13 +1151,16 @@
       <c r="D39">
         <v>2020</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E39" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40">
-        <v>4.2</v>
+        <v>4200</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -1033,13 +1168,16 @@
       <c r="D40">
         <v>2020</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
+      <c r="E40" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B41">
-        <v>5.6</v>
+        <v>5600</v>
       </c>
       <c r="C41">
         <v>8</v>
@@ -1047,13 +1185,16 @@
       <c r="D41">
         <v>2020</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E41" s="4">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B42">
-        <v>82.7</v>
+        <v>82700</v>
       </c>
       <c r="C42">
         <v>11</v>
@@ -1061,13 +1202,16 @@
       <c r="D42">
         <v>2020</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E42" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>3</v>
       </c>
       <c r="B43">
-        <v>58.4</v>
+        <v>58400</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -1075,13 +1219,16 @@
       <c r="D43">
         <v>2020</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E43" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44">
-        <v>47.9</v>
+        <v>47900</v>
       </c>
       <c r="C44">
         <v>11</v>
@@ -1089,13 +1236,16 @@
       <c r="D44">
         <v>2020</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E44" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>5</v>
       </c>
       <c r="B45">
-        <v>15.6</v>
+        <v>15600</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -1103,13 +1253,16 @@
       <c r="D45">
         <v>2020</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E45" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>6</v>
       </c>
       <c r="B46">
-        <v>37.4</v>
+        <v>37400</v>
       </c>
       <c r="C46">
         <v>11</v>
@@ -1117,13 +1270,16 @@
       <c r="D46">
         <v>2020</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E46" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47">
-        <v>5.0999999999999996</v>
+        <v>5100</v>
       </c>
       <c r="C47">
         <v>11</v>
@@ -1131,13 +1287,16 @@
       <c r="D47">
         <v>2020</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E47" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48">
-        <v>4.2</v>
+        <v>4200</v>
       </c>
       <c r="C48">
         <v>11</v>
@@ -1145,13 +1304,16 @@
       <c r="D48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
+      <c r="E48" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B49">
-        <v>7.9</v>
+        <v>7900</v>
       </c>
       <c r="C49">
         <v>11</v>
@@ -1159,13 +1321,16 @@
       <c r="D49">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E49" s="4">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>94</v>
+        <v>94000</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1173,13 +1338,16 @@
       <c r="D50">
         <v>2021</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E50" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>3</v>
       </c>
       <c r="B51">
-        <v>65.599999999999994</v>
+        <v>65600</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1187,13 +1355,16 @@
       <c r="D51">
         <v>2021</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E51" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52">
-        <v>53.5</v>
+        <v>53500</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1201,13 +1372,16 @@
       <c r="D52">
         <v>2021</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E52" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53">
-        <v>19.3</v>
+        <v>19300</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1215,13 +1389,16 @@
       <c r="D53">
         <v>2021</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E53" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1229,13 +1406,16 @@
       <c r="D54">
         <v>2021</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E54" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55">
-        <v>5.7</v>
+        <v>5700</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1243,13 +1423,16 @@
       <c r="D55">
         <v>2021</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E55" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1257,13 +1440,16 @@
       <c r="D56">
         <v>2021</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A57" t="s">
+      <c r="E56" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B57">
-        <v>8.1999999999999993</v>
+        <v>8200</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1271,13 +1457,16 @@
       <c r="D57">
         <v>2021</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E57" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>112.8</v>
+        <v>112800</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1285,13 +1474,16 @@
       <c r="D58">
         <v>2021</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E58" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>3</v>
       </c>
       <c r="B59">
-        <v>87.6</v>
+        <v>87600</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1299,13 +1491,16 @@
       <c r="D59">
         <v>2021</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E59" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="B60">
-        <v>67.2</v>
+        <v>67200</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1313,13 +1508,16 @@
       <c r="D60">
         <v>2021</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E60" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>5</v>
       </c>
       <c r="B61">
-        <v>21.3</v>
+        <v>21300</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1327,13 +1525,16 @@
       <c r="D61">
         <v>2021</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E61" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>6</v>
       </c>
       <c r="B62">
-        <v>46.2</v>
+        <v>46200</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1341,13 +1542,16 @@
       <c r="D62">
         <v>2021</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E62" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1355,13 +1559,16 @@
       <c r="D63">
         <v>2021</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E63" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1369,13 +1576,16 @@
       <c r="D64">
         <v>2021</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A65" t="s">
+      <c r="E64" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B65">
-        <v>8.8000000000000007</v>
+        <v>8800</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1383,13 +1593,16 @@
       <c r="D65">
         <v>2021</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E65" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>95.2</v>
+        <v>95200</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -1397,13 +1610,16 @@
       <c r="D66">
         <v>2021</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E66" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>3</v>
       </c>
       <c r="B67">
-        <v>81.3</v>
+        <v>81300</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -1411,13 +1627,16 @@
       <c r="D67">
         <v>2021</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E67" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>4</v>
       </c>
       <c r="B68">
-        <v>70.599999999999994</v>
+        <v>70600</v>
       </c>
       <c r="C68">
         <v>8</v>
@@ -1425,13 +1644,16 @@
       <c r="D68">
         <v>2021</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E68" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>5</v>
       </c>
       <c r="B69">
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="C69">
         <v>8</v>
@@ -1439,13 +1661,16 @@
       <c r="D69">
         <v>2021</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E69" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>6</v>
       </c>
       <c r="B70">
-        <v>52.1</v>
+        <v>52100</v>
       </c>
       <c r="C70">
         <v>8</v>
@@ -1453,13 +1678,16 @@
       <c r="D70">
         <v>2021</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E70" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>7</v>
       </c>
       <c r="B71">
-        <v>5.8</v>
+        <v>5800</v>
       </c>
       <c r="C71">
         <v>8</v>
@@ -1467,13 +1695,16 @@
       <c r="D71">
         <v>2021</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E71" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
       <c r="C72">
         <v>8</v>
@@ -1481,13 +1712,16 @@
       <c r="D72">
         <v>2021</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A73" t="s">
+      <c r="E72" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A73" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>8000</v>
       </c>
       <c r="C73">
         <v>8</v>
@@ -1495,13 +1729,16 @@
       <c r="D73">
         <v>2021</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E73" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>120.9</v>
+        <v>120900</v>
       </c>
       <c r="C74">
         <v>11</v>
@@ -1509,13 +1746,16 @@
       <c r="D74">
         <v>2021</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E74" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>3</v>
       </c>
       <c r="B75">
-        <v>106</v>
+        <v>106000</v>
       </c>
       <c r="C75">
         <v>11</v>
@@ -1523,13 +1763,16 @@
       <c r="D75">
         <v>2021</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E75" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>4</v>
       </c>
       <c r="B76">
-        <v>70.3</v>
+        <v>70300</v>
       </c>
       <c r="C76">
         <v>11</v>
@@ -1537,13 +1780,16 @@
       <c r="D76">
         <v>2021</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E76" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77">
-        <v>23.7</v>
+        <v>23700</v>
       </c>
       <c r="C77">
         <v>11</v>
@@ -1551,13 +1797,16 @@
       <c r="D77">
         <v>2021</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E77" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>6</v>
       </c>
       <c r="B78">
-        <v>60.8</v>
+        <v>60800</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -1565,13 +1814,16 @@
       <c r="D78">
         <v>2021</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E78" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79">
-        <v>6.8</v>
+        <v>6800</v>
       </c>
       <c r="C79">
         <v>11</v>
@@ -1579,13 +1831,16 @@
       <c r="D79">
         <v>2021</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E79" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80">
-        <v>6.2</v>
+        <v>6200</v>
       </c>
       <c r="C80">
         <v>11</v>
@@ -1593,13 +1848,16 @@
       <c r="D80">
         <v>2021</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A81" t="s">
+      <c r="E80" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B81">
-        <v>9.9</v>
+        <v>9900</v>
       </c>
       <c r="C81">
         <v>11</v>
@@ -1607,13 +1865,16 @@
       <c r="D81">
         <v>2021</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E81" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A82" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>130</v>
+        <v>130000</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1621,13 +1882,16 @@
       <c r="D82">
         <v>2022</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E82" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>3</v>
       </c>
       <c r="B83">
-        <v>101.8</v>
+        <v>101800</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1635,13 +1899,16 @@
       <c r="D83">
         <v>2022</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E83" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>4</v>
       </c>
       <c r="B84">
-        <v>76.900000000000006</v>
+        <v>76900</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1649,13 +1916,16 @@
       <c r="D84">
         <v>2022</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E84" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>5</v>
       </c>
       <c r="B85">
-        <v>24.5</v>
+        <v>24500</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -1663,13 +1933,16 @@
       <c r="D85">
         <v>2022</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E85" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>6</v>
       </c>
       <c r="B86">
-        <v>66.5</v>
+        <v>66500</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -1677,13 +1950,16 @@
       <c r="D86">
         <v>2022</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E86" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>7</v>
       </c>
       <c r="B87">
-        <v>7.3</v>
+        <v>7300</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1691,13 +1967,16 @@
       <c r="D87">
         <v>2022</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E87" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>8</v>
       </c>
       <c r="B88">
-        <v>8.5</v>
+        <v>8500</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -1705,13 +1984,16 @@
       <c r="D88">
         <v>2022</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A89" t="s">
+      <c r="E88" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B89">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1719,13 +2001,16 @@
       <c r="D89">
         <v>2022</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E89" s="4">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B90">
-        <v>145.1</v>
+        <v>145100</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -1733,13 +2018,16 @@
       <c r="D90">
         <v>2022</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E90" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>3</v>
       </c>
       <c r="B91">
-        <v>120.1</v>
+        <v>120100</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -1747,13 +2035,16 @@
       <c r="D91">
         <v>2022</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E91" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>4</v>
       </c>
       <c r="B92">
-        <v>78.599999999999994</v>
+        <v>78600</v>
       </c>
       <c r="C92">
         <v>5</v>
@@ -1761,13 +2052,16 @@
       <c r="D92">
         <v>2022</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E92" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>5</v>
       </c>
       <c r="B93">
-        <v>24.5</v>
+        <v>24500</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -1775,13 +2069,16 @@
       <c r="D93">
         <v>2022</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E93" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>6</v>
       </c>
       <c r="B94">
-        <v>65.2</v>
+        <v>65200</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -1789,13 +2086,16 @@
       <c r="D94">
         <v>2022</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E94" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>7</v>
       </c>
       <c r="B95">
-        <v>7.5</v>
+        <v>7500</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -1803,13 +2103,16 @@
       <c r="D95">
         <v>2022</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E95" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96">
-        <v>7.7</v>
+        <v>7700</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -1817,13 +2120,16 @@
       <c r="D96">
         <v>2022</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A97" t="s">
+      <c r="E96" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A97" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B97">
-        <v>12.3</v>
+        <v>12300</v>
       </c>
       <c r="C97">
         <v>5</v>
@@ -1831,13 +2137,16 @@
       <c r="D97">
         <v>2022</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E97" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>150.80000000000001</v>
+        <v>150800</v>
       </c>
       <c r="C98">
         <v>8</v>
@@ -1845,13 +2154,16 @@
       <c r="D98">
         <v>2022</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E98" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>3</v>
       </c>
       <c r="B99">
-        <v>126.6</v>
+        <v>126600</v>
       </c>
       <c r="C99">
         <v>8</v>
@@ -1859,13 +2171,16 @@
       <c r="D99">
         <v>2022</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E99" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100">
-        <v>85.8</v>
+        <v>85800</v>
       </c>
       <c r="C100">
         <v>8</v>
@@ -1873,13 +2188,16 @@
       <c r="D100">
         <v>2022</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E100" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>5</v>
       </c>
       <c r="B101">
-        <v>25.2</v>
+        <v>25200</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -1887,13 +2205,16 @@
       <c r="D101">
         <v>2022</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E101" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>6</v>
       </c>
       <c r="B102">
-        <v>60.7</v>
+        <v>60700</v>
       </c>
       <c r="C102">
         <v>8</v>
@@ -1901,13 +2222,16 @@
       <c r="D102">
         <v>2022</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E102" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>7</v>
       </c>
       <c r="B103">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -1915,13 +2239,16 @@
       <c r="D103">
         <v>2022</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E103" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>8</v>
       </c>
       <c r="B104">
-        <v>7.6</v>
+        <v>7600</v>
       </c>
       <c r="C104">
         <v>8</v>
@@ -1929,13 +2256,16 @@
       <c r="D104">
         <v>2022</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A105" t="s">
+      <c r="E104" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A105" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B105">
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="C105">
         <v>8</v>
@@ -1943,13 +2273,16 @@
       <c r="D105">
         <v>2022</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E105" s="4">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B106">
-        <v>133</v>
+        <v>133000</v>
       </c>
       <c r="C106">
         <v>11</v>
@@ -1957,13 +2290,16 @@
       <c r="D106">
         <v>2022</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E106" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>3</v>
       </c>
       <c r="B107">
-        <v>117.7</v>
+        <v>117700</v>
       </c>
       <c r="C107">
         <v>11</v>
@@ -1971,13 +2307,16 @@
       <c r="D107">
         <v>2022</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E107" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>4</v>
       </c>
       <c r="B108">
-        <v>85.7</v>
+        <v>85700</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -1985,13 +2324,16 @@
       <c r="D108">
         <v>2022</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E108" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>5</v>
       </c>
       <c r="B109">
-        <v>25.3</v>
+        <v>25300</v>
       </c>
       <c r="C109">
         <v>11</v>
@@ -1999,13 +2341,16 @@
       <c r="D109">
         <v>2022</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E109" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>6</v>
       </c>
       <c r="B110">
-        <v>61.9</v>
+        <v>61900</v>
       </c>
       <c r="C110">
         <v>11</v>
@@ -2013,13 +2358,16 @@
       <c r="D110">
         <v>2022</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E110" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -2027,13 +2375,16 @@
       <c r="D111">
         <v>2022</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E111" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112">
-        <v>7.5</v>
+        <v>7500</v>
       </c>
       <c r="C112">
         <v>11</v>
@@ -2041,13 +2392,16 @@
       <c r="D112">
         <v>2022</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A113" t="s">
+      <c r="E112" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B113">
-        <v>12.2</v>
+        <v>12200</v>
       </c>
       <c r="C113">
         <v>11</v>
@@ -2055,13 +2409,16 @@
       <c r="D113">
         <v>2022</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E113" s="4">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B114">
-        <v>145</v>
+        <v>145000</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2069,13 +2426,16 @@
       <c r="D114">
         <v>2023</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E114" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>3</v>
       </c>
       <c r="B115">
-        <v>110.8</v>
+        <v>110800</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -2083,13 +2443,16 @@
       <c r="D115">
         <v>2023</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E115" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>4</v>
       </c>
       <c r="B116">
-        <v>85</v>
+        <v>85000</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -2097,13 +2460,16 @@
       <c r="D116">
         <v>2023</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E116" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>5</v>
       </c>
       <c r="B117">
-        <v>22.9</v>
+        <v>22900</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -2111,13 +2477,16 @@
       <c r="D117">
         <v>2023</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E117" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>6</v>
       </c>
       <c r="B118">
-        <v>52.8</v>
+        <v>52800</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -2125,13 +2494,16 @@
       <c r="D118">
         <v>2023</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E118" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>7</v>
       </c>
       <c r="B119">
-        <v>7.7</v>
+        <v>7700</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -2139,13 +2511,16 @@
       <c r="D119">
         <v>2023</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E119" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>8</v>
       </c>
       <c r="B120">
-        <v>6.9</v>
+        <v>6900</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -2153,13 +2528,16 @@
       <c r="D120">
         <v>2023</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A121" t="s">
+      <c r="E120" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A121" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B121">
-        <v>11.5</v>
+        <v>11500</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -2167,13 +2545,16 @@
       <c r="D121">
         <v>2023</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E121" s="4">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A122" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B122">
-        <v>128.1</v>
+        <v>128100</v>
       </c>
       <c r="C122">
         <v>5</v>
@@ -2181,13 +2562,16 @@
       <c r="D122">
         <v>2023</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E122" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123">
-        <v>105.1</v>
+        <v>105100</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -2195,13 +2579,16 @@
       <c r="D123">
         <v>2023</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E123" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>4</v>
       </c>
       <c r="B124">
-        <v>77.099999999999994</v>
+        <v>77100</v>
       </c>
       <c r="C124">
         <v>5</v>
@@ -2209,13 +2596,16 @@
       <c r="D124">
         <v>2023</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E124" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>5</v>
       </c>
       <c r="B125">
-        <v>24.9</v>
+        <v>24900</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -2223,13 +2613,16 @@
       <c r="D125">
         <v>2023</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E125" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>6</v>
       </c>
       <c r="B126">
-        <v>54.9</v>
+        <v>54900</v>
       </c>
       <c r="C126">
         <v>5</v>
@@ -2237,13 +2630,16 @@
       <c r="D126">
         <v>2023</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E126" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>7</v>
       </c>
       <c r="B127">
-        <v>7.1</v>
+        <v>7100</v>
       </c>
       <c r="C127">
         <v>5</v>
@@ -2251,13 +2647,16 @@
       <c r="D127">
         <v>2023</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E127" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>8</v>
       </c>
       <c r="B128">
-        <v>6.3</v>
+        <v>6300</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -2265,13 +2664,16 @@
       <c r="D128">
         <v>2023</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A129" t="s">
+      <c r="E128" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A129" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B129">
-        <v>11.4</v>
+        <v>11400</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -2279,13 +2681,16 @@
       <c r="D129">
         <v>2023</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E129" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B130">
-        <v>122.4</v>
+        <v>122400</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -2293,13 +2698,16 @@
       <c r="D130">
         <v>2023</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E130" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>3</v>
       </c>
       <c r="B131">
-        <v>99.6</v>
+        <v>99600</v>
       </c>
       <c r="C131">
         <v>8</v>
@@ -2307,13 +2715,16 @@
       <c r="D131">
         <v>2023</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E131" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>4</v>
       </c>
       <c r="B132">
-        <v>80</v>
+        <v>80000</v>
       </c>
       <c r="C132">
         <v>8</v>
@@ -2321,13 +2732,16 @@
       <c r="D132">
         <v>2023</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E132" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="B133">
-        <v>24.7</v>
+        <v>24700</v>
       </c>
       <c r="C133">
         <v>8</v>
@@ -2335,13 +2749,16 @@
       <c r="D133">
         <v>2023</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E133" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>6</v>
       </c>
       <c r="B134">
-        <v>52.5</v>
+        <v>52500</v>
       </c>
       <c r="C134">
         <v>8</v>
@@ -2349,13 +2766,16 @@
       <c r="D134">
         <v>2023</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E134" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>7</v>
       </c>
       <c r="B135">
-        <v>6.8</v>
+        <v>6800</v>
       </c>
       <c r="C135">
         <v>8</v>
@@ -2363,13 +2783,16 @@
       <c r="D135">
         <v>2023</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E135" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="C136">
         <v>8</v>
@@ -2377,13 +2800,16 @@
       <c r="D136">
         <v>2023</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A137" t="s">
+      <c r="E136" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A137" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B137">
-        <v>10.4</v>
+        <v>10400</v>
       </c>
       <c r="C137">
         <v>8</v>
@@ -2391,13 +2817,16 @@
       <c r="D137">
         <v>2023</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E137" s="4">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A138" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B138">
-        <v>119.5</v>
+        <v>119500</v>
       </c>
       <c r="C138">
         <v>11</v>
@@ -2405,13 +2834,16 @@
       <c r="D138">
         <v>2023</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E138" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>3</v>
       </c>
       <c r="B139">
-        <v>94.9</v>
+        <v>94900</v>
       </c>
       <c r="C139">
         <v>11</v>
@@ -2419,13 +2851,16 @@
       <c r="D139">
         <v>2023</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E139" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>4</v>
       </c>
       <c r="B140">
-        <v>78.2</v>
+        <v>78200</v>
       </c>
       <c r="C140">
         <v>11</v>
@@ -2433,13 +2868,16 @@
       <c r="D140">
         <v>2023</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E140" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141">
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="C141">
         <v>11</v>
@@ -2447,13 +2885,16 @@
       <c r="D141">
         <v>2023</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E141" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>6</v>
       </c>
       <c r="B142">
-        <v>49.5</v>
+        <v>49500</v>
       </c>
       <c r="C142">
         <v>11</v>
@@ -2461,13 +2902,16 @@
       <c r="D142">
         <v>2023</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E142" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>7</v>
       </c>
       <c r="B143">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
       <c r="C143">
         <v>11</v>
@@ -2475,13 +2919,16 @@
       <c r="D143">
         <v>2023</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E143" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>8</v>
       </c>
       <c r="B144">
-        <v>5.2</v>
+        <v>5200</v>
       </c>
       <c r="C144">
         <v>11</v>
@@ -2489,13 +2936,16 @@
       <c r="D144">
         <v>2023</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A145" t="s">
+      <c r="E144" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B145">
-        <v>8.6</v>
+        <v>8600</v>
       </c>
       <c r="C145">
         <v>11</v>
@@ -2503,13 +2953,16 @@
       <c r="D145">
         <v>2023</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E145" s="4">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A146" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B146">
-        <v>107.6</v>
+        <v>107600</v>
       </c>
       <c r="C146">
         <v>2</v>
@@ -2517,13 +2970,16 @@
       <c r="D146">
         <v>2024</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E146" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>3</v>
       </c>
       <c r="B147">
-        <v>91.5</v>
+        <v>91500</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -2531,13 +2987,16 @@
       <c r="D147">
         <v>2024</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E147" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>4</v>
       </c>
       <c r="B148">
-        <v>69.5</v>
+        <v>69500</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -2545,13 +3004,16 @@
       <c r="D148">
         <v>2024</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E148" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149">
-        <v>25.9</v>
+        <v>25900</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -2559,13 +3021,16 @@
       <c r="D149">
         <v>2024</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E149" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>6</v>
       </c>
       <c r="B150">
-        <v>47.8</v>
+        <v>47800</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -2573,13 +3038,16 @@
       <c r="D150">
         <v>2024</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E150" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>7</v>
       </c>
       <c r="B151">
-        <v>6.8</v>
+        <v>6800</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -2587,13 +3055,16 @@
       <c r="D151">
         <v>2024</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E151" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>8</v>
       </c>
       <c r="B152">
-        <v>4.8</v>
+        <v>4800</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -2601,13 +3072,16 @@
       <c r="D152">
         <v>2024</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A153" t="s">
+      <c r="E152" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A153" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B153">
-        <v>8.6999999999999993</v>
+        <v>8700</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -2615,13 +3089,16 @@
       <c r="D153">
         <v>2024</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E153" s="4">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A154" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B154">
-        <v>103.5</v>
+        <v>103500</v>
       </c>
       <c r="C154">
         <v>5</v>
@@ -2629,13 +3106,16 @@
       <c r="D154">
         <v>2024</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E154" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>3</v>
       </c>
       <c r="B155">
-        <v>87.4</v>
+        <v>87400</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -2643,13 +3123,16 @@
       <c r="D155">
         <v>2024</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E155" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>4</v>
       </c>
       <c r="B156">
-        <v>67</v>
+        <v>67000</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -2657,13 +3140,16 @@
       <c r="D156">
         <v>2024</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E156" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>5</v>
       </c>
       <c r="B157">
-        <v>21.5</v>
+        <v>21500</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -2671,13 +3157,16 @@
       <c r="D157">
         <v>2024</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E157" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>6</v>
       </c>
       <c r="B158">
-        <v>42</v>
+        <v>42000</v>
       </c>
       <c r="C158">
         <v>5</v>
@@ -2685,13 +3174,16 @@
       <c r="D158">
         <v>2024</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E158" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>7</v>
       </c>
       <c r="B159">
-        <v>6.4</v>
+        <v>6400</v>
       </c>
       <c r="C159">
         <v>5</v>
@@ -2699,13 +3191,16 @@
       <c r="D159">
         <v>2024</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E159" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>8</v>
       </c>
       <c r="B160">
-        <v>5.5</v>
+        <v>5500</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -2713,13 +3208,16 @@
       <c r="D160">
         <v>2024</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A161" t="s">
+      <c r="E160" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A161" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B161">
-        <v>8.3000000000000007</v>
+        <v>8300</v>
       </c>
       <c r="C161">
         <v>5</v>
@@ -2727,13 +3225,16 @@
       <c r="D161">
         <v>2024</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E161" s="4">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A162" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B162">
-        <v>101.4</v>
+        <v>101400</v>
       </c>
       <c r="C162">
         <v>8</v>
@@ -2741,13 +3242,16 @@
       <c r="D162">
         <v>2024</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E162" s="4">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>3</v>
       </c>
       <c r="B163">
-        <v>82.8</v>
+        <v>82800</v>
       </c>
       <c r="C163">
         <v>8</v>
@@ -2755,13 +3259,16 @@
       <c r="D163">
         <v>2024</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E163" s="4">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>4</v>
       </c>
       <c r="B164">
-        <v>67.5</v>
+        <v>67500</v>
       </c>
       <c r="C164">
         <v>8</v>
@@ -2769,13 +3276,16 @@
       <c r="D164">
         <v>2024</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E164" s="4">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>5</v>
       </c>
       <c r="B165">
-        <v>19.5</v>
+        <v>19500</v>
       </c>
       <c r="C165">
         <v>8</v>
@@ -2783,13 +3293,16 @@
       <c r="D165">
         <v>2024</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E165" s="4">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>6</v>
       </c>
       <c r="B166">
-        <v>41.5</v>
+        <v>41500</v>
       </c>
       <c r="C166">
         <v>8</v>
@@ -2797,13 +3310,16 @@
       <c r="D166">
         <v>2024</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E166" s="4">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>7</v>
       </c>
       <c r="B167">
-        <v>6.1</v>
+        <v>6100</v>
       </c>
       <c r="C167">
         <v>8</v>
@@ -2811,13 +3327,16 @@
       <c r="D167">
         <v>2024</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="E167" s="4">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>8</v>
       </c>
       <c r="B168">
-        <v>5.0999999999999996</v>
+        <v>5100</v>
       </c>
       <c r="C168">
         <v>8</v>
@@ -2825,19 +3344,25 @@
       <c r="D168">
         <v>2024</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.75">
-      <c r="A169" t="s">
+      <c r="E168" s="4">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A169" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B169">
-        <v>7.9</v>
+        <v>7900</v>
       </c>
       <c r="C169">
         <v>8</v>
       </c>
       <c r="D169">
         <v>2024</v>
+      </c>
+      <c r="E169" s="4">
+        <v>45505</v>
       </c>
     </row>
   </sheetData>
